--- a/Server/PlanTo/config/J角色.xlsx
+++ b/Server/PlanTo/config/J角色.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>wzdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +480,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,7 +534,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/Server/PlanTo/config/J角色.xlsx
+++ b/Server/PlanTo/config/J角色.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Role" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,121 +16,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压制得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加倍得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺子得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连对得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510K得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王炸得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>类型id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sjjy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yzdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lddf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsmc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压制得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加倍得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺子得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连对得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510K得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王炸得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sjid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jbdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xzdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zddf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wskdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wzdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upId</t>
+  </si>
+  <si>
+    <t>upExp</t>
+  </si>
+  <si>
+    <t>skillId</t>
+  </si>
+  <si>
+    <t>yaZhiDF</t>
+  </si>
+  <si>
+    <t>jiaBeiDF</t>
+  </si>
+  <si>
+    <t>shunziDF</t>
+  </si>
+  <si>
+    <t>lianDuiDF</t>
+  </si>
+  <si>
+    <t>zhaDanDF</t>
+  </si>
+  <si>
+    <t>wskDF</t>
+  </si>
+  <si>
+    <t>wangZhaDF</t>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -493,145 +495,145 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1001</v>
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1002</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>500</v>
-      </c>
-      <c r="N3">
-        <v>1000</v>
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1003</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -660,19 +662,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>1003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1004</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -701,19 +703,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>1004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>1005</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -742,19 +744,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>1005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1006</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -783,19 +785,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
         <v>1006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>1007</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -824,19 +826,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>1007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>1008</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -865,19 +867,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
         <v>1008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1009</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -906,19 +908,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>1009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1010</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -947,16 +949,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
         <v>1010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -980,6 +985,44 @@
         <v>500</v>
       </c>
       <c r="N12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>500</v>
+      </c>
+      <c r="N13">
         <v>1000</v>
       </c>
     </row>
